--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77997BA-C5E7-524F-9AA1-34CA52332035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079055A-FA29-4D47-9CE3-B6F8D27234C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15080" windowHeight="15360" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13840" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079055A-FA29-4D47-9CE3-B6F8D27234C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102A2568-436A-9641-A3E1-AACF8D290CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13840" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
   <si>
     <t>Number</t>
   </si>
@@ -276,16 +276,311 @@
   </si>
   <si>
     <t>n. r</t>
+  </si>
+  <si>
+    <t>carry_vector</t>
+  </si>
+  <si>
+    <t>inle_25.cpp</t>
+  </si>
+  <si>
+    <t>vect , base</t>
+  </si>
+  <si>
+    <t>vector number , base</t>
+  </si>
+  <si>
+    <t>add_vector_nums</t>
+  </si>
+  <si>
+    <t>fib_dig_index</t>
+  </si>
+  <si>
+    <t>base vector number manipulation. Note: vectors are put in backwards.*/</t>
+  </si>
+  <si>
+    <t>decimalizes vectors (carries values to the end)</t>
+  </si>
+  <si>
+    <t>returns  the index of the first term in the Fibonacci sequence to contain digits digits</t>
+  </si>
+  <si>
+    <t>add_vector_num</t>
+  </si>
+  <si>
+    <t>vector1, vector2, base</t>
+  </si>
+  <si>
+    <t>digits</t>
+  </si>
+  <si>
+    <t>fibonacci , digit count</t>
+  </si>
+  <si>
+    <t>length_num_digits</t>
+  </si>
+  <si>
+    <t>returns the length of a number</t>
+  </si>
+  <si>
+    <t>length , digit count</t>
+  </si>
+  <si>
+    <t>inle_26.py</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>reciprocal_cycle_len</t>
+  </si>
+  <si>
+    <t>returns the length of the reciprocal cycle of a number</t>
+  </si>
+  <si>
+    <t>reciprocal , cycle length</t>
+  </si>
+  <si>
+    <t>quadratic_primes</t>
+  </si>
+  <si>
+    <t>returns the quadratic expression which produces the max number of primes under a limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quadratic primes </t>
+  </si>
+  <si>
+    <t>inle_27.py</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>sum_digit_power</t>
+  </si>
+  <si>
+    <t>returns the sum of all numbers for which the sum of the powers of their digits is the number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum digits , </t>
+  </si>
+  <si>
+    <t>inle_30.py</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>coin_sums</t>
+  </si>
+  <si>
+    <t>all of the ways to combine british coins to get an ammount</t>
+  </si>
+  <si>
+    <t>money , combinations</t>
+  </si>
+  <si>
+    <t>inle_31.py</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>are_pandigital</t>
+  </si>
+  <si>
+    <t>checks through numbers in a list to see if they are pandigital</t>
+  </si>
+  <si>
+    <t>inle_32.py</t>
+  </si>
+  <si>
+    <t>pandigital , permutations , checks pemutation</t>
+  </si>
+  <si>
+    <t>number_list, digits</t>
+  </si>
+  <si>
+    <t>list_to_decimal</t>
+  </si>
+  <si>
+    <t>converts a list to decimal</t>
+  </si>
+  <si>
+    <t>vector number , list number , string number, base</t>
+  </si>
+  <si>
+    <t>inle_35.py</t>
+  </si>
+  <si>
+    <t>list_number , base</t>
+  </si>
+  <si>
+    <t>circulations</t>
+  </si>
+  <si>
+    <t>yields circulations of a string</t>
+  </si>
+  <si>
+    <t>circular, circulations , string</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>concat_prod</t>
+  </si>
+  <si>
+    <t>concatenates product of a number and integers up to a length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenation , </t>
+  </si>
+  <si>
+    <t>inle_38.py</t>
+  </si>
+  <si>
+    <t>n, length</t>
+  </si>
+  <si>
+    <t>champernowne_at_x</t>
+  </si>
+  <si>
+    <t>finds the digit at x in the champernowne number</t>
+  </si>
+  <si>
+    <t>champernowne number, integer concatenation</t>
+  </si>
+  <si>
+    <t>inle_40.py</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>is_triangle</t>
+  </si>
+  <si>
+    <t>checks whether a number is a tiangle number</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>inle_42.py</t>
+  </si>
+  <si>
+    <t>get_list</t>
+  </si>
+  <si>
+    <t>txt, text file , read , list</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>letter_sum</t>
+  </si>
+  <si>
+    <t>Converts a list of words to a list of the sums of their numbers</t>
+  </si>
+  <si>
+    <t>word , letter sum , alphabet</t>
+  </si>
+  <si>
+    <t>name_list</t>
+  </si>
+  <si>
+    <t>is_pentagonal</t>
+  </si>
+  <si>
+    <t>checks whether a number is a pentagonal number</t>
+  </si>
+  <si>
+    <t>pantagonal</t>
+  </si>
+  <si>
+    <t>inle_44.py</t>
+  </si>
+  <si>
+    <t>pentagonal</t>
+  </si>
+  <si>
+    <t>is_hexagonal</t>
+  </si>
+  <si>
+    <t>checks whether a number is a hexagonal number</t>
+  </si>
+  <si>
+    <t>hexagonal</t>
+  </si>
+  <si>
+    <t>inle_45.py</t>
+  </si>
+  <si>
+    <t>hexag</t>
+  </si>
+  <si>
+    <t>count_prime_factors</t>
+  </si>
+  <si>
+    <t>counts prime factors of a number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prime factors , </t>
+  </si>
+  <si>
+    <t>inle_47.cpp</t>
+  </si>
+  <si>
+    <t>combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counts combinations </t>
+  </si>
+  <si>
+    <t>combinations , count ,probability</t>
+  </si>
+  <si>
+    <t>inle_53.py</t>
+  </si>
+  <si>
+    <t>is_palindrome</t>
+  </si>
+  <si>
+    <t>checks for palindrome</t>
+  </si>
+  <si>
+    <t>palindrome</t>
+  </si>
+  <si>
+    <t>inle_55.py</t>
+  </si>
+  <si>
+    <t>is_lychrel</t>
+  </si>
+  <si>
+    <t>checks for lychrel numbers</t>
+  </si>
+  <si>
+    <t>lychrel , palindrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,9 +606,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,6 +625,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{380B3E3B-1E09-3F45-B483-A204D9C54BD4}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter val="*per*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0A88C72C-048B-354A-B5C0-BBF537E1DD4E}" name="Number"/>
+    <tableColumn id="2" xr3:uid="{3EAB488D-33C3-4F46-9237-E4489BF71D10}" name="Function Name"/>
+    <tableColumn id="3" xr3:uid="{3975E602-FE1A-3342-A60E-09781868309A}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{0EDFC8E2-2F54-3548-907E-9FB4D10B85BC}" name="Key words"/>
+    <tableColumn id="5" xr3:uid="{EB972054-831E-894B-8B88-8BEC99A9CD09}" name="File Name"/>
+    <tableColumn id="6" xr3:uid="{6B635EAD-6085-134C-A876-82FE4641BB9F}" name="Language"/>
+    <tableColumn id="7" xr3:uid="{704CACEB-7D0C-1044-A8E7-C592FE05F867}" name="inputs"/>
+    <tableColumn id="8" xr3:uid="{27A3AB72-1935-4046-8FC6-1833935132C8}" name="uses"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,17 +947,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7269E-7790-E547-AC91-FA3CE9D40C51}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -667,7 +988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -690,7 +1011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -713,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -736,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -759,7 +1080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -785,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -808,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -831,7 +1152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -854,7 +1175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -880,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -903,7 +1224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -926,7 +1247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -949,7 +1270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -972,7 +1293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -995,7 +1316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1021,7 +1342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1041,7 +1362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1064,32 +1385,597 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102A2568-436A-9641-A3E1-AACF8D290CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B328946-2974-B540-9465-BDE37078C640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13840" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,13 +629,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{380B3E3B-1E09-3F45-B483-A204D9C54BD4}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter val="*per*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0A88C72C-048B-354A-B5C0-BBF537E1DD4E}" name="Number"/>
     <tableColumn id="2" xr3:uid="{3EAB488D-33C3-4F46-9237-E4489BF71D10}" name="Function Name"/>
@@ -950,7 +944,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1080,7 +1074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1247,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1385,7 +1379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1434,7 +1428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1460,7 +1454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1483,7 +1477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1529,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1621,7 +1615,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1644,7 +1638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1736,7 +1730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1759,7 +1753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1782,7 +1776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1805,7 +1799,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1828,7 +1822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1874,7 +1868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1897,77 +1891,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B328946-2974-B540-9465-BDE37078C640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C9D907-6C99-8441-B9A1-D15499B1EE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13840" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7269E-7790-E547-AC91-FA3CE9D40C51}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C9D907-6C99-8441-B9A1-D15499B1EE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703ED80-F807-1941-8AED-76377D861BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13840" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7269E-7790-E547-AC91-FA3CE9D40C51}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703ED80-F807-1941-8AED-76377D861BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4AB510-9989-EA4A-AD5A-C69F0DC7CC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15080" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="11680" yWindow="460" windowWidth="15080" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7269E-7790-E547-AC91-FA3CE9D40C51}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/solutions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/cs/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4AB510-9989-EA4A-AD5A-C69F0DC7CC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A439C832-CD82-994E-844C-B87D31A10F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="460" windowWidth="15080" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="9580" yWindow="3200" windowWidth="15080" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{380B3E3B-1E09-3F45-B483-A204D9C54BD4}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}"/>
+  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="vector number , base"/>
+        <filter val="vector number , list number , string number, base"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0A88C72C-048B-354A-B5C0-BBF537E1DD4E}" name="Number"/>
     <tableColumn id="2" xr3:uid="{3EAB488D-33C3-4F46-9237-E4489BF71D10}" name="Function Name"/>
@@ -943,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7269E-7790-E547-AC91-FA3CE9D40C51}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,7 +989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1100,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1356,7 +1363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1454,7 +1461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1569,7 +1576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1638,7 +1645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1891,77 +1898,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/cs/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A439C832-CD82-994E-844C-B87D31A10F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11F905-9902-764D-A302-99A027B21866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="3200" windowWidth="15080" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,14 +629,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{380B3E3B-1E09-3F45-B483-A204D9C54BD4}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="vector number , base"/>
-        <filter val="vector number , list number , string number, base"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0A88C72C-048B-354A-B5C0-BBF537E1DD4E}" name="Number"/>
     <tableColumn id="2" xr3:uid="{3EAB488D-33C3-4F46-9237-E4489BF71D10}" name="Function Name"/>
@@ -950,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA7269E-7790-E547-AC91-FA3CE9D40C51}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,7 +982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1012,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1035,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1058,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1081,7 +1074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1107,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1130,7 +1123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1153,7 +1146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1176,7 +1169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1202,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1225,7 +1218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1248,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1271,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1294,7 +1287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1317,7 +1310,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1343,7 +1336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1363,7 +1356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1435,7 +1428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1461,7 +1454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1484,7 +1477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1504,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1530,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1553,7 +1546,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1576,7 +1569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1645,7 +1638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1668,7 +1661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1691,7 +1684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1714,7 +1707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1737,7 +1730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1760,7 +1753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1783,7 +1776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1806,7 +1799,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1829,7 +1822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1852,7 +1845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1875,7 +1868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1898,77 +1891,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/cs/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11F905-9902-764D-A302-99A027B21866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AF13D-8CBB-734A-BD8B-45C37A8EF3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
@@ -629,7 +629,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{380B3E3B-1E09-3F45-B483-A204D9C54BD4}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}"/>
+  <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="pandigital , permutations , checks pemutation"/>
+        <filter val="permutations , count , probability"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0A88C72C-048B-354A-B5C0-BBF537E1DD4E}" name="Number"/>
     <tableColumn id="2" xr3:uid="{3EAB488D-33C3-4F46-9237-E4489BF71D10}" name="Function Name"/>
@@ -944,7 +951,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,7 +989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1100,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1454,7 +1461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1523,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1592,7 +1599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1638,7 +1645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1891,77 +1898,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>

--- a/inle_functions.xlsx
+++ b/inle_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inle_bush/Desktop/cs/solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AF13D-8CBB-734A-BD8B-45C37A8EF3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E00D3B-9F86-B54D-9615-6F5D3A246E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13820" xr2:uid="{D1DFE109-4487-DB4B-8C3B-ED6D0B4F8677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <autoFilter ref="A1:H55" xr:uid="{6328D835-E1DA-0A4B-9C1A-999543367B28}">
     <filterColumn colId="3">
       <filters>
-        <filter val="pandigital , permutations , checks pemutation"/>
+        <filter val="prime"/>
         <filter val="permutations , count , probability"/>
       </filters>
     </filterColumn>
@@ -951,7 +951,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
